--- a/GLAZE_DATASET.xlsx
+++ b/GLAZE_DATASET.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souja\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/souzatya/Documents/GitHub/abi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA945ED-E487-468E-BB48-A919122E7D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE76A9E-FC00-2A48-A085-56C4918D76B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1260" windowWidth="21600" windowHeight="13890" xr2:uid="{C366121E-35B1-40B4-A2F7-51EF23A6294E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C366121E-35B1-40B4-A2F7-51EF23A6294E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CMC</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Virgin</t>
+  </si>
+  <si>
+    <t>fF</t>
+  </si>
+  <si>
+    <t>fD</t>
   </si>
 </sst>
 </file>
@@ -410,193 +416,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C606785-E28D-452E-B21F-280C336F6387}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1.637</v>
       </c>
       <c r="B2" s="2">
-        <f>1.637-1.578</f>
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2-B2</f>
         <v>5.8999999999999941E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
+        <v>347</v>
+      </c>
+      <c r="E2" s="2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.65</v>
       </c>
       <c r="B3" s="2">
-        <f>1.65-1.609</f>
+        <v>1.609</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C12" si="0">A3-B3</f>
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
+        <v>346</v>
+      </c>
+      <c r="E3" s="2">
         <v>2.85</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1.6080000000000001</v>
       </c>
       <c r="B4" s="2">
-        <f>1.608-1.587</f>
+        <v>1.587</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
         <v>2.100000000000013E-2</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
       <c r="D4" s="2">
+        <v>335</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1.661</v>
       </c>
       <c r="B5" s="2">
-        <f>1.661-1.6</f>
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
         <v>6.0999999999999943E-2</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
       <c r="D5" s="2">
+        <v>309</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1.661</v>
       </c>
       <c r="B6" s="2">
-        <f>1.661-1.591</f>
+        <v>1.591</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
       <c r="D6" s="2">
+        <v>319</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1.661</v>
       </c>
       <c r="B7" s="2">
-        <f>1.661-1.577</f>
+        <v>1.577</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>8.4000000000000075E-2</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
       <c r="D7" s="2">
+        <v>326</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1.661</v>
       </c>
       <c r="B8" s="2">
-        <f>1.661-1.571</f>
+        <v>1.571</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
       <c r="D8" s="2">
+        <v>333</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1.6080000000000001</v>
       </c>
       <c r="B9" s="2">
-        <f>1.608-1.571</f>
+        <v>1.571</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
         <v>3.7000000000000144E-2</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
       <c r="D9" s="2">
+        <v>334</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1.65</v>
       </c>
       <c r="B10" s="2">
-        <f>1.65-1.573</f>
+        <v>1.573</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
         <v>7.6999999999999957E-2</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
       <c r="D10" s="2">
+        <v>335</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1.64</v>
       </c>
       <c r="B11" s="2">
-        <f>1.64-1.582</f>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
         <v>5.7999999999999829E-2</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
       <c r="D11" s="2">
+        <v>332</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1.6439999999999999</v>
       </c>
       <c r="B12" s="2">
-        <f>1.644-1.594</f>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
       <c r="D12" s="2">
+        <v>339</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
         <v>120</v>
       </c>
     </row>
